--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.27 fix 3</t>
+    <t xml:space="preserve">EA 23.28</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.28</t>
+    <t xml:space="preserve">EA 23.29</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.29</t>
+    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.30</t>
+    <t xml:space="preserve">EA 23.32</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.32</t>
+    <t xml:space="preserve">EA 23.33</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.33</t>
+    <t xml:space="preserve">EA 23.34 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.34 fix 3</t>
+    <t xml:space="preserve">EA 23.35 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.35 fix 1</t>
+    <t xml:space="preserve">EA 23.36</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.36</t>
+    <t xml:space="preserve">EA 23.37</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.37</t>
+    <t xml:space="preserve">EA 23.38</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38</t>
+    <t xml:space="preserve">EA 23.38 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38 fix 1</t>
+    <t xml:space="preserve">EA 23.39</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.39</t>
+    <t xml:space="preserve">EA 23.40 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.40 fix 1</t>
+    <t xml:space="preserve">EA 23.41</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.41</t>
+    <t xml:space="preserve">EA 23.42</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.42</t>
+    <t xml:space="preserve">EA 23.44 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.44 fix 1</t>
+    <t xml:space="preserve">EA 23.45</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.45</t>
+    <t xml:space="preserve">EA 23.46</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.46</t>
+    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>
@@ -151,6 +151,21 @@
   </si>
   <si>
     <t xml:space="preserve">ナイミール深層への扉の鍵だ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illumination Engineer License</t>
+  </si>
+  <si>
+    <t xml:space="preserve">照明技師のライセンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A license for Illumination Engineer. Possessing it allows you to freely change colors of lights.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">照明技師のライセンスだ。所持することで、照明の色を自由に変えることができるようになる。</t>
   </si>
   <si>
     <t xml:space="preserve">600</t>
@@ -378,10 +393,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -390,7 +405,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -404,10 +419,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -416,7 +431,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -430,10 +445,10 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -442,7 +457,7 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -456,10 +471,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -468,7 +483,7 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -482,10 +497,10 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -494,7 +509,7 @@
         <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -508,10 +523,10 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
@@ -520,7 +535,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
         <v>37</v>
@@ -534,10 +549,10 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
@@ -546,7 +561,7 @@
         <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -560,19 +575,13 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
       </c>
       <c r="E10" t="s">
         <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>79</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -586,10 +595,10 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
@@ -598,7 +607,7 @@
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -612,10 +621,10 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
         <v>55</v>
@@ -624,13 +633,39 @@
         <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s">
         <v>57</v>
       </c>
       <c r="H12" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.65</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.65</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.74</t>
+    <t xml:space="preserve">EA 23.75 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.82 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.82 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.92 Patch 2</t>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.99 Patch 1</t>
+    <t xml:space="preserve">EA 23.108</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.108</t>
+    <t xml:space="preserve">EA 23.109 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="95">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.140</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>
@@ -151,6 +151,21 @@
   </si>
   <si>
     <t xml:space="preserve">ナイミール深層への扉の鍵だ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bracelet of Forgiveness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赦しの腕輪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tattered bracelet woven from withered vines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">枯れた蔦で編まれたボロボロの腕輪だ。</t>
   </si>
   <si>
     <t xml:space="preserve">590</t>
@@ -402,10 +417,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -414,7 +429,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -428,10 +443,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -440,7 +455,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -454,10 +469,10 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -466,7 +481,7 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -480,10 +495,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -492,7 +507,7 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -506,10 +521,10 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -518,7 +533,7 @@
         <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -532,10 +547,10 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
@@ -544,7 +559,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
         <v>37</v>
@@ -558,10 +573,10 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
@@ -570,7 +585,7 @@
         <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -584,19 +599,13 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
       </c>
       <c r="E10" t="s">
         <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>86</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -610,10 +619,10 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
@@ -622,7 +631,7 @@
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -636,10 +645,10 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
         <v>55</v>
@@ -648,7 +657,7 @@
         <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
         <v>57</v>
@@ -662,10 +671,10 @@
         <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
         <v>60</v>
@@ -674,13 +683,39 @@
         <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
         <v>62</v>
       </c>
       <c r="H13" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.170</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.170</t>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.187</t>
+    <t xml:space="preserve">EA 23.188 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>
@@ -166,6 +166,30 @@
   </si>
   <si>
     <t xml:space="preserve">枯れた蔦で編まれたボロボロの腕輪だ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubbling Mysterious Vial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泡立つ謎の瓶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A vial filled with a bubbling, clear liquid. It reeks of corruption.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泡立つ透明な液体が入った瓶だ。とても穢れた匂いがする。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A vial filled with a bubbling, clear liquid. It smells like detergent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泡立つ透明な液体が入った瓶だ。洗剤の匂いがする。</t>
   </si>
   <si>
     <t xml:space="preserve">590</t>
@@ -426,10 +450,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -438,7 +462,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -452,10 +476,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -464,7 +488,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -478,10 +502,10 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -490,7 +514,7 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -504,10 +528,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -516,7 +540,7 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -530,10 +554,10 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -542,7 +566,7 @@
         <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -556,10 +580,10 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
@@ -568,7 +592,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
         <v>37</v>
@@ -582,10 +606,10 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
@@ -594,7 +618,7 @@
         <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -608,10 +632,10 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
@@ -620,7 +644,7 @@
         <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -634,19 +658,13 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>94</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -660,77 +678,123 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
         <v>55</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>56</v>
-      </c>
-      <c r="F12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
         <v>59</v>
       </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
         <v>60</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>61</v>
-      </c>
-      <c r="F13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
         <v>64</v>
       </c>
-      <c r="B14" t="s">
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" t="s">
         <v>70</v>
       </c>
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" t="s">
-        <v>68</v>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.222</t>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/Mod_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>
